--- a/_TEST_DB.xlsx
+++ b/_TEST_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Laragen_VBA_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7523EF5-EE3A-4B4A-A254-29964CDD8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9544C-2444-467E-B877-A1801869844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="3800" windowWidth="28720" windowHeight="15370" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="28710" windowHeight="15370" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="999">
   <si>
     <t>Q175-iExon49</t>
   </si>
@@ -3022,6 +3022,27 @@
   </si>
   <si>
     <t>Q140&lt;neodel&gt;</t>
+  </si>
+  <si>
+    <t>Generic Human FXN - Laragen</t>
+  </si>
+  <si>
+    <t>Htt&lt;tm3Mem&gt;</t>
+  </si>
+  <si>
+    <t>Htt&lt;tm1.1Pfs&gt;/80</t>
+  </si>
+  <si>
+    <t>65Q</t>
+  </si>
+  <si>
+    <t>Tg(HSA*LR)20bCath-</t>
+  </si>
+  <si>
+    <t>Htt&lt;tm5Mem&gt;</t>
+  </si>
+  <si>
+    <t>Htt&lt;tm1.1Mfc&gt; Laragen</t>
   </si>
 </sst>
 </file>
@@ -4032,7 +4053,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -4230,6 +4251,16 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5159,18 +5190,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7 A9:A11 A15">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 I41:I1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5179,10 +5210,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5470,24 +5501,44 @@
         <v>991</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="65" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="65" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="65" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="65" t="s">
+        <v>995</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <conditionalFormatting sqref="A18:A24 A26:A27">
-    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A1048576 A1:A17">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9 G2:G3 D11:D1048576 D1:D6">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5497,10 +5548,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5915,9 +5966,42 @@
         <v>126</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>996</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>997</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>998</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>992</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
